--- a/database/industries/felezat/fameli/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/fameli/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB9F90-EF1B-488C-B516-A607377201D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1276AA-5F80-4B4B-B0D0-8D2FF479154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -721,12 +721,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -741,7 +741,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -790,7 +790,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -839,7 +839,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -876,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -891,7 +891,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -947,7 +947,7 @@
         <v>46281</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -986,7 +986,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>793059</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>192105</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>43534</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>5588658</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>6668421</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>40</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>20221</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>26</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>41</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>20263</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>46</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>47</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>6688684</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2117,7 +2117,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2147,7 +2147,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2199,7 +2199,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>49</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>211713</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>9655144</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>2115290</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>21</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>2275296</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>7561731</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>848454</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>24</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>102716209</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>25</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>2816656</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>27</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>29</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>30</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>31</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>33</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>35</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>37</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>788235</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>38</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>128988728</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>51</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>22</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>23</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>40</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>48497365</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>26</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>265602</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>41</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>48762967</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="16" t="s">
         <v>52</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>43</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>44</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>46</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
         <v>47</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>177751695</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3427,7 +3427,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3442,7 +3442,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3457,7 +3457,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3509,7 +3509,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>54</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>16</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>4574512</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>19</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>4194241529</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>20</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>2667254</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>11844023</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>22</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>37434311881</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>23</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>451785942</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2359447995</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>25</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>7006606965</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>27</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>28</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>29</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>30</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>31</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>33</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>35</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>36</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>37</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>141042</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>58</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>21</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>22</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>23</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>40</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>24</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>2398366302</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>26</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>6323857143</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4494,7 +4494,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4509,7 +4509,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4524,7 +4524,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>59</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4576,7 +4576,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>60</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>19</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>-1776433</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>20</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>-1826650</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>21</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>-657904</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>22</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>-321884</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>23</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>-389617</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>24</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>-56677989</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>25</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>26</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>-419184</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>27</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>28</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>29</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>30</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>31</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>33</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>35</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>36</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>37</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
         <v>61</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>-62069661</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>62</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>21</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>-696670</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>22</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>23</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="12" t="s">
         <v>40</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>24</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>-18874864</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>26</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>-403484</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="s">
         <v>63</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>-19975018</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="16" t="s">
         <v>64</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="14" t="s">
         <v>65</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="18" t="s">
         <v>44</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="14" t="s">
         <v>46</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="18" t="s">
         <v>47</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>-82044679</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5804,7 +5804,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5819,7 +5819,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5834,7 +5834,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>66</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5886,7 +5886,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>67</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>16</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>211713</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>19</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>7878711</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>20</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>288640</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>21</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>1617392</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>22</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>7239847</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>23</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>458837</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>24</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>46038220</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>25</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>26</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>2397472</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>27</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>28</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>29</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>30</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>31</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>33</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>35</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>36</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>37</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>788235</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="14" t="s">
         <v>68</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>66919067</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>69</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>21</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>-696670</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>22</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>23</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="12" t="s">
         <v>40</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>24</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>29622501</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="12" t="s">
         <v>26</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>-137882</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>70</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>28787949</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="16" t="s">
         <v>71</v>
       </c>
@@ -6947,7 +6947,7 @@
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="14" t="s">
         <v>72</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="18" t="s">
         <v>47</v>
       </c>
